--- a/summary_baseline.xlsx
+++ b/summary_baseline.xlsx
@@ -793,58 +793,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.353497408032057</v>
+        <v>2.366646053112585</v>
       </c>
       <c r="C6" t="n">
-        <v>2.109916675408572</v>
+        <v>2.117953082951988</v>
       </c>
       <c r="D6" t="n">
-        <v>1.933834686249061</v>
+        <v>1.946277347440352</v>
       </c>
       <c r="E6" t="n">
-        <v>1.757436584637848</v>
+        <v>1.772905209185035</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1034973447568661</v>
+        <v>0.1050824519507336</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1783145034920217</v>
+        <v>0.1776221269417828</v>
       </c>
       <c r="H6" t="n">
-        <v>1.859099986419486</v>
+        <v>1.859356273548464</v>
       </c>
       <c r="I6" t="n">
-        <v>1.127391932266859</v>
+        <v>1.077731629980625</v>
       </c>
       <c r="J6" t="n">
-        <v>1.366189036431576</v>
+        <v>1.327932955197307</v>
       </c>
       <c r="K6" t="n">
-        <v>2.018470056403355</v>
+        <v>1.927945360782972</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3935818726790766</v>
+        <v>0.4203737899440635</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2651341797582532</v>
+        <v>0.2858103774469046</v>
       </c>
       <c r="N6" t="n">
-        <v>58.56205698374294</v>
+        <v>58.33156753466881</v>
       </c>
       <c r="O6" t="n">
-        <v>27.78376534877567</v>
+        <v>27.57649820683957</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5255671200810356</v>
+        <v>0.5272457200734449</v>
       </c>
       <c r="Q6" t="n">
-        <v>35760.10505277378</v>
+        <v>35525.83764552922</v>
       </c>
       <c r="R6" t="n">
-        <v>6396.867561200709</v>
+        <v>6357.360585689559</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8211172044444391</v>
+        <v>0.8210496639341139</v>
       </c>
     </row>
     <row r="7">
@@ -854,58 +854,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.998322945979766</v>
+        <v>2.010626010451889</v>
       </c>
       <c r="C7" t="n">
-        <v>1.79533276583599</v>
+        <v>1.756446531932137</v>
       </c>
       <c r="D7" t="n">
-        <v>1.48934460273134</v>
+        <v>1.471022358009893</v>
       </c>
       <c r="E7" t="n">
-        <v>1.097066006383741</v>
+        <v>1.039754329106481</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1015802678701919</v>
+        <v>0.1264180793436693</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2547027467569199</v>
+        <v>0.2683759434310312</v>
       </c>
       <c r="H7" t="n">
-        <v>1.491805294661361</v>
+        <v>1.494059199829377</v>
       </c>
       <c r="I7" t="n">
-        <v>1.101694183750637</v>
+        <v>0.6035464730411675</v>
       </c>
       <c r="J7" t="n">
-        <v>1.383226585677932</v>
+        <v>0.9895990489986736</v>
       </c>
       <c r="K7" t="n">
-        <v>2.42260905938264</v>
+        <v>2.081246758710466</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2615026989827644</v>
+        <v>0.5960357707980425</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07278343184059835</v>
+        <v>0.3376440176455612</v>
       </c>
       <c r="N7" t="n">
-        <v>50.66124661242159</v>
+        <v>50.4601152536607</v>
       </c>
       <c r="O7" t="n">
-        <v>27.75857726600257</v>
+        <v>27.59282872011248</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4520747292626537</v>
+        <v>0.4531754717284219</v>
       </c>
       <c r="Q7" t="n">
-        <v>28086.52663896557</v>
+        <v>27900.92776762232</v>
       </c>
       <c r="R7" t="n">
-        <v>5060.804482203451</v>
+        <v>5029.401505451774</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8198138008570134</v>
+        <v>0.8197407072861516</v>
       </c>
     </row>
     <row r="8">

--- a/summary_baseline.xlsx
+++ b/summary_baseline.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,92 +441,127 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>COD_in</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>MPSP_exist</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>MPSP_new</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>MPSP_RIN</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>MPSP_no_WWT</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MPSP_new_frac_reduction</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MPSP_RIN_frac_reduction</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>GWP_exist</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>GWP_new</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>GWP_RIN</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>GWP_no_WWT</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>GWP_new_frac_reduction</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>GWP_RIN_frac_reduction</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>CAPEX_WWT_exist</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>CAPEX_WWT_new</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>CAPEX_frac_reduction</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>CAPEX_reduction</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>CAPEX_WWT_frac_exist</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>CAPEX_WWT_frac_new</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>electricity_WWT_exist</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>electricity_WWT_new</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>electricity_WWT_frac_reduction</t>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>electricity_WWT_reduction</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>electricity_WWT_frac_exist</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>electricity_WWT_frac_new</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ECR_exist</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ECR_new</t>
         </is>
       </c>
     </row>
@@ -537,62 +572,83 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>7768.034139774792</v>
+      </c>
+      <c r="C2" t="n">
         <v>1.473153783329886</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1.446199816919027</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1.422134422165871</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.424284281648668</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.01829677710220634</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.03463274624913374</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2.923263617816073</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>2.644121171773649</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>2.637566847799949</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2.697530143108954</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.09549000108685637</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.09773212661181893</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.429913831060537</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>-inf</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1532012310107469</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>2155.120155273794</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>-inf</t>
         </is>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1232868912155048</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2972392960452052</v>
       </c>
     </row>
     <row r="3">
@@ -602,62 +658,83 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>10304.6145587681</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.050894463831623</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2.020746742237938</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>1.998403519166454</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.971636485228009</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.01469979178614638</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.02559417151436513</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-1.222896471692557</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-1.770089521239921</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>-1.689088539678057</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>-1.594675566921566</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>-0.4474565608894246</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>-0.3812195707296989</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>8.32989163355418</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>-inf</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0630929066395696</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>2300.780725416786</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>-inf</t>
         </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0563776575988774</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0945117444224419</v>
       </c>
     </row>
     <row r="4">
@@ -667,62 +744,83 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>5448.37141229089</v>
+      </c>
+      <c r="C4" t="n">
         <v>1.615587648145031</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.639234067316844</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>1.612690004648196</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.507058860778469</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.01463641988038406</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.001793553881252956</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-12.69439032538546</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>-13.39460032534528</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>-13.28662667705617</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>-13.19121830018599</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>-0.05515900976824201</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-0.04665339070962589</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>9.76550149632873</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>-inf</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0563333682928295</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>2941.198169644301</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>-inf</t>
         </is>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0639882443001577</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.1819824538676855</v>
       </c>
     </row>
     <row r="5">
@@ -732,58 +830,79 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>65172.40056933241</v>
+      </c>
+      <c r="C5" t="n">
         <v>2.144805580120606</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1.963595577174609</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>1.465663329985225</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2.166488683623705</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.08448784571690986</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.3166451339133459</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.8725135578166892</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-0.3089016795485015</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.5041507988903997</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>3.247051593819852</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>1.354036538207467</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.4221857134782548</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>49.4000340563707</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>35.48155915589382</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.2817503098195118</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
+        <v>0.2389994070512131</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2016031428819216</v>
+      </c>
+      <c r="T5" t="n">
         <v>60100.50482482319</v>
       </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>10756.40215879221</v>
       </c>
-      <c r="S5" t="n">
+      <c r="V5" t="n">
         <v>0.8210264258154863</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.3442801822388573</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0878924349000694</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1209860652806428</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0175973939139772</v>
       </c>
     </row>
     <row r="6">
@@ -793,58 +912,79 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>28827.51152410485</v>
+      </c>
+      <c r="C6" t="n">
         <v>2.366646053112585</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2.117953082951988</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1.946277347440352</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.772905209185035</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1050824519507336</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.1776221269417828</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>1.859356273548464</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1.077731629980625</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>1.327932955197307</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1.927945360782972</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.4203737899440635</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.2858103774469046</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>58.33156753466881</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>27.57649820683957</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.5272457200734449</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>0.2562523187099998</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1436428053998922</v>
+      </c>
+      <c r="T6" t="n">
         <v>35525.83764552922</v>
       </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>6357.360585689559</v>
       </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
         <v>0.8210496639341139</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.3390493569922831</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.08365463221873599</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2425118990670642</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0354198676445758</v>
       </c>
     </row>
     <row r="7">
@@ -854,58 +994,79 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>45473.2229900557</v>
+      </c>
+      <c r="C7" t="n">
         <v>2.010626010451889</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1.756446531932137</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1.471022358009893</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.039754329106481</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.1264180793436693</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.2683759434310312</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>1.494059199829377</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.6035464730411675</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.9895990489986736</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>2.081246758710466</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.5960357707980425</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.3376440176455612</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>50.4601152536607</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>27.59282872011248</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.4531754717284219</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
+        <v>0.2040279456748265</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1221805305529623</v>
+      </c>
+      <c r="T7" t="n">
         <v>27900.92776762232</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>5029.401505451774</v>
       </c>
-      <c r="S7" t="n">
+      <c r="V7" t="n">
         <v>0.8197407072861516</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.2764618413268506</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.06433720810622311</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1534023211718589</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0221352786626753</v>
       </c>
     </row>
     <row r="8">
@@ -915,58 +1076,79 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>91190.00268360044</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.375168058836285</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1.302946746890901</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1.077820610074246</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.353326673072742</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.05251817149279955</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.2162262618386182</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>4.505451498978486</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>4.200286761975906</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>4.480668837191839</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>6.000633948144233</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.06773233205856723</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.0055005945113971</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>42.13425993396559</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>42.59115229752614</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-0.0108437258486706</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
+        <v>0.1520458131793466</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1534418563043897</v>
+      </c>
+      <c r="T8" t="n">
         <v>76596.63085865349</v>
       </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
         <v>9666.512176416243</v>
       </c>
-      <c r="S8" t="n">
+      <c r="V8" t="n">
         <v>0.8737997733313596</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.2541881249357208</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0412381091990413</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0581715149130677</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.0067108247407394</v>
       </c>
     </row>
   </sheetData>

--- a/summary_baseline.xlsx
+++ b/summary_baseline.xlsx
@@ -691,10 +691,10 @@
         <v>-1.594675566921566</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.4474565608894246</v>
+        <v>0.4474565608894246</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3812195707296989</v>
+        <v>0.3812195707296989</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>-13.19121830018599</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.05515900976824201</v>
+        <v>0.05515900976824201</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04665339070962589</v>
+        <v>0.04665339070962589</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>

--- a/summary_baseline.xlsx
+++ b/summary_baseline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,127 +441,142 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>COD_in</t>
+          <t>MPSP_exist</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MPSP_exist</t>
+          <t>MPSP_new</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MPSP_new</t>
+          <t>MPSP_RIN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MPSP_RIN</t>
+          <t>MPSP_no_WWT</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>MPSP_no_WWT</t>
+          <t>MPSP_new_frac_reduction</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MPSP_new_frac_reduction</t>
+          <t>MPSP_RIN_frac_reduction</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MPSP_RIN_frac_reduction</t>
+          <t>GWP_exist</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>GWP_exist</t>
+          <t>GWP_new</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>GWP_new</t>
+          <t>GWP_RIN</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>GWP_RIN</t>
+          <t>GWP_no_WWT</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>GWP_no_WWT</t>
+          <t>GWP_new_frac_reduction</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>GWP_new_frac_reduction</t>
+          <t>GWP_RIN_frac_reduction</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>GWP_RIN_frac_reduction</t>
+          <t>CAPEX_WWT_exist</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>CAPEX_WWT_exist</t>
+          <t>CAPEX_WWT_new</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>CAPEX_WWT_new</t>
+          <t>CAPEX_reduction</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>CAPEX_reduction</t>
+          <t>CAPEX_WWT_frac_exist</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>CAPEX_WWT_frac_exist</t>
+          <t>CAPEX_WWT_frac_new</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>CAPEX_WWT_frac_new</t>
+          <t>electricity_WWT_exist</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>electricity_WWT_exist</t>
+          <t>electricity_WWT_new</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>electricity_WWT_new</t>
+          <t>electricity_WWT_reduction</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>electricity_WWT_reduction</t>
+          <t>electricity_WWT_frac_exist</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>electricity_WWT_frac_exist</t>
+          <t>electricity_WWT_frac_new</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>electricity_WWT_frac_new</t>
+          <t>ECR_exist</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>ECR_exist</t>
+          <t>ECR_new</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>ECR_new</t>
+          <t>COD_in_new</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>COD_load_new</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>COD_cost_new</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>COD_GWP_new</t>
         </is>
       </c>
     </row>
@@ -572,83 +587,92 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1.473153783329886</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.446199816919027</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.422134422165871</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.424284281648668</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01829677710220634</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03463274624913374</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.923263617816073</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.644121171773649</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.637566847799949</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.697530143108954</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.09549000108685637</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.09773212661181893</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.429913831060537</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1532012310107469</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2155.120155273794</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.1232868912155048</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2972392960452052</v>
+      </c>
+      <c r="Z2" t="n">
         <v>7768.034139774792</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.473153783329886</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.446199816919027</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.422134422165871</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.424284281648668</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.01829677710220634</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03463274624913374</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.923263617816073</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.644121171773649</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.637566847799949</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.697530143108954</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.09549000108685637</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.09773212661181893</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.429913831060537</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.1532012310107469</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2155.120155273794</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1232868912155048</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.2972392960452052</v>
+      <c r="AA2" t="n">
+        <v>5569.176381328656</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>164.0362640682914</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-399.7624524107852</v>
       </c>
     </row>
     <row r="3">
@@ -658,83 +682,92 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>2.050894463831623</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.020746742237938</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.998403519166454</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.971636485228009</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01469979178614638</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.02559417151436513</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.222896471692557</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.770089521239921</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.689088539678057</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.594675566921566</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4474565608894246</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3812195707296989</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.32989163355418</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0630929066395696</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2300.780725416786</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0563776575988774</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0945117444224419</v>
+      </c>
+      <c r="Z3" t="n">
         <v>10304.6145587681</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.050894463831623</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.020746742237938</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.998403519166454</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.971636485228009</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.01469979178614638</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.02559417151436513</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-1.222896471692557</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-1.770089521239921</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-1.689088539678057</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-1.594675566921566</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.4474565608894246</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.3812195707296989</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>8.32989163355418</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0630929066395696</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2300.780725416786</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.0563776575988774</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.0945117444224419</v>
+      <c r="AA3" t="n">
+        <v>7987.621870236982</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>230.3862950153418</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-822.9028616410181</v>
       </c>
     </row>
     <row r="4">
@@ -744,83 +777,92 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1.615587648145031</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.639234067316844</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.612690004648196</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.507058860778469</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.01463641988038406</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.001793553881252956</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-12.69439032538546</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-13.39460032534528</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-13.28662667705617</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-13.19121830018599</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05515900976824201</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.04665339070962589</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9.76550149632873</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0563333682928295</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2941.198169644301</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0639882443001577</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.1819824538676855</v>
+      </c>
+      <c r="Z4" t="n">
         <v>5448.37141229089</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.615587648145031</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.639234067316844</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.612690004648196</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.507058860778469</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.01463641988038406</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.001793553881252956</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-12.69439032538546</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-13.39460032534528</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-13.28662667705617</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-13.19121830018599</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.05515900976824201</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.04665339070962589</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9.76550149632873</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0563333682928295</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2941.198169644301</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.0639882443001577</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.1819824538676855</v>
+      <c r="AA4" t="n">
+        <v>5390.082092279663</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>465.1107181006476</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-715.680060186913</v>
       </c>
     </row>
     <row r="5">
@@ -830,79 +872,88 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>2.144805580120606</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.963595577174609</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.465663329985225</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.166488683623705</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08448784571690986</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3166451339133459</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8725135578166892</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.3089016795485015</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5041507988903997</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.247051593819852</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.354036538207467</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4221857134782548</v>
+      </c>
+      <c r="N5" t="n">
+        <v>49.4000340563707</v>
+      </c>
+      <c r="O5" t="n">
+        <v>35.48155915589382</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2817503098195118</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.2389994070512131</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2016031428819216</v>
+      </c>
+      <c r="S5" t="n">
+        <v>60100.50482482319</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10756.40215879221</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.8210264258154863</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.3442801822388573</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0878924349000694</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.1209860652806428</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0175973939139772</v>
+      </c>
+      <c r="Z5" t="n">
         <v>65172.40056933241</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.144805580120606</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.963595577174609</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.465663329985225</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.166488683623705</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.08448784571690986</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3166451339133459</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8725135578166892</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-0.3089016795485015</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5041507988903997</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.247051593819852</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.354036538207467</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.4221857134782548</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49.4000340563707</v>
-      </c>
-      <c r="P5" t="n">
-        <v>35.48155915589382</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.2817503098195118</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.2389994070512131</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.2016031428819216</v>
-      </c>
-      <c r="T5" t="n">
-        <v>60100.50482482319</v>
-      </c>
-      <c r="U5" t="n">
-        <v>10756.40215879221</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.8210264258154863</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.3442801822388573</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.0878924349000694</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.1209860652806428</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.0175973939139772</v>
+      <c r="AA5" t="n">
+        <v>224463.6285838399</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-55.90085798143387</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-979.7553295569696</v>
       </c>
     </row>
     <row r="6">
@@ -912,79 +963,88 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>2.366646053112585</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.117953082951988</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.946277347440352</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.772905209185035</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1050824519507336</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1776221269417828</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.859356273548464</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.077731629980625</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.327932955197307</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.927945360782972</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4203737899440635</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2858103774469046</v>
+      </c>
+      <c r="N6" t="n">
+        <v>58.33156753466881</v>
+      </c>
+      <c r="O6" t="n">
+        <v>27.57649820683957</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5272457200734449</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2562523187099998</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1436428053998922</v>
+      </c>
+      <c r="S6" t="n">
+        <v>35525.83764552922</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6357.360585689559</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.8210496639341139</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.3390493569922831</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.08365463221873599</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2425118990670642</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0354198676445758</v>
+      </c>
+      <c r="Z6" t="n">
         <v>28827.51152410485</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.366646053112585</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.117953082951988</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.946277347440352</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.772905209185035</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1050824519507336</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1776221269417828</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.859356273548464</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.077731629980625</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.327932955197307</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.927945360782972</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.4203737899440635</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.2858103774469046</v>
-      </c>
-      <c r="O6" t="n">
-        <v>58.33156753466881</v>
-      </c>
-      <c r="P6" t="n">
-        <v>27.57649820683957</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5272457200734449</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.2562523187099998</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.1436428053998922</v>
-      </c>
-      <c r="T6" t="n">
-        <v>35525.83764552922</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6357.360585689559</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.8210496639341139</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.3390493569922831</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.08365463221873599</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.2425118990670642</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.0354198676445758</v>
+      <c r="AA6" t="n">
+        <v>58891.00963582942</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>299.9935238748866</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-739.197753533986</v>
       </c>
     </row>
     <row r="7">
@@ -994,79 +1054,88 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>2.010626010451889</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.756446531932137</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.471022358009893</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.039754329106481</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1264180793436693</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2683759434310312</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.494059199829377</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6035464730411675</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9895990489986736</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.081246758710466</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5960357707980425</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.3376440176455612</v>
+      </c>
+      <c r="N7" t="n">
+        <v>50.4601152536607</v>
+      </c>
+      <c r="O7" t="n">
+        <v>27.59282872011248</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.4531754717284219</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2040279456748265</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1221805305529623</v>
+      </c>
+      <c r="S7" t="n">
+        <v>27900.92776762232</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5029.401505451774</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8197407072861516</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.2764618413268506</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.06433720810622311</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1534023211718589</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0221352786626753</v>
+      </c>
+      <c r="Z7" t="n">
         <v>45473.2229900557</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.010626010451889</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.756446531932137</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.471022358009893</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.039754329106481</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1264180793436693</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2683759434310312</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.494059199829377</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6035464730411675</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9895990489986736</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.081246758710466</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.5960357707980425</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.3376440176455612</v>
-      </c>
-      <c r="O7" t="n">
-        <v>50.4601152536607</v>
-      </c>
-      <c r="P7" t="n">
-        <v>27.59282872011248</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.4531754717284219</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.2040279456748265</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.1221805305529623</v>
-      </c>
-      <c r="T7" t="n">
-        <v>27900.92776762232</v>
-      </c>
-      <c r="U7" t="n">
-        <v>5029.401505451774</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.8197407072861516</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.2764618413268506</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.06433720810622311</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.1534023211718589</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.0221352786626753</v>
+      <c r="AA7" t="n">
+        <v>74245.69211389381</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>378.0345243088549</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-779.4444007645266</v>
       </c>
     </row>
     <row r="8">
@@ -1076,79 +1145,88 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>1.375168058836285</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.302946746890901</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.077820610074246</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.353326673072742</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.05251817149279955</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2162262618386182</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.505451498978486</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.200286761975906</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.480668837191839</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.000633948144233</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.06773233205856723</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0055005945113971</v>
+      </c>
+      <c r="N8" t="n">
+        <v>42.13425993396559</v>
+      </c>
+      <c r="O8" t="n">
+        <v>42.59115229752614</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.0108437258486706</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1520458131793466</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1534418563043897</v>
+      </c>
+      <c r="S8" t="n">
+        <v>76596.63085865349</v>
+      </c>
+      <c r="T8" t="n">
+        <v>9666.512176416243</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.8737997733313596</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.2541881249357208</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0412381091990413</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0581715149130677</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0067108247407394</v>
+      </c>
+      <c r="Z8" t="n">
         <v>91190.00268360044</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.375168058836285</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.302946746890901</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.077820610074246</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.353326673072742</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.05251817149279955</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.2162262618386182</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.505451498978486</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.200286761975906</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.480668837191839</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.000633948144233</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.06773233205856723</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0055005945113971</v>
-      </c>
-      <c r="O8" t="n">
-        <v>42.13425993396559</v>
-      </c>
-      <c r="P8" t="n">
-        <v>42.59115229752614</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-0.0108437258486706</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.1520458131793466</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.1534418563043897</v>
-      </c>
-      <c r="T8" t="n">
-        <v>76596.63085865349</v>
-      </c>
-      <c r="U8" t="n">
-        <v>9666.512176416243</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.8737997733313596</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.2541881249357208</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.0412381091990413</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.0581715149130677</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.0067108247407394</v>
+      <c r="AA8" t="n">
+        <v>281324.4109843572</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-38.85792340835372</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-1388.603723158885</v>
       </c>
     </row>
   </sheetData>
